--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar FlashPoint/LocalizationDef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="630" windowWidth="28455" windowHeight="10935"/>
+    <workbookView xWindow="75" yWindow="90" windowWidth="28455" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,13 @@
   </si>
   <si>
     <t xml:space="preserve">An upgrade of the Cyclops that has come out of the Periphery, the 11-H was first sighted in 3064 among the ranks of Lady Death's pirates. The H is built on the standard 10-Z chassis but now carries eleven and a half tons of Ferro-Fibrous armor and its weapons payload is heavily modified, carrying the standard Autocannon/20 and two medium lasers but replacing the rest for six Rocket Launcher 20s. This gives the 11-H the firepower to decimate anything that dares to close with it to attempt to make a kill.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Battle Computer B2000&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
----
-An upgrade of the Cyclops that has come out of the Periphery, the 11-H was first sighted in 3064 among the ranks of Lady Death's pirates. The H is built on the standard 10-Z chassis but now carries eleven and a half tons of Ferro-Fibrous armor and its weapons payload is heavily modified, carrying the standard Autocannon/20 and two medium lasers but replacing the rest for six Rocket Launcher 20s. This gives the 11-H the firepower to decimate anything that dares to close with it to attempt to make a kill.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Battle Computer B2000&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">An upgrade of the Cyclops that has come out of the Periphery, the 11-H was first sighted in 3064 among the ranks of Lady Death's pirates. The H is built on the standard 10-Z chassis but now carries eleven and a half tons of Ferro-Fibrous armor and its weapons payload is heavily modified, carrying the standard Autocannon/20 and two medium lasers but replacing the rest for six Rocket Launcher 20s. This gives the 11-H the firepower to decimate anything that dares to close with it to attempt to make a kill.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Computer B2000&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Computer B2000&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_cyclops_CP-11-H.StockRole</t>
@@ -52,17 +48,13 @@
   </si>
   <si>
     <t xml:space="preserve">A rugged and formidable variant of the Hatchetman, the 5D not only has a powerful mid range punch with its AC/10 and ER Medium Laser, but also utilizes an extra light engine to reduce overall weight.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Melee Actuators&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;
----
-A rugged and formidable variant of the Hatchetman, the 5D not only has a powerful mid range punch with its AC/10 and ER Medium Laser, but also utilizes an extra light engine to reduce overall weight.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Melee Actuators&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">A rugged and formidable variant of the Hatchetman, the 5D not only has a powerful mid range punch with its AC/10 and ER Medium Laser, but also utilizes an extra light engine to reduce overall weight.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hatchetman_HCT-5D.StockRole</t>
@@ -81,17 +73,13 @@
   </si>
   <si>
     <t xml:space="preserve">An unusual variant of the HCT-5D, the 5DD swaps out the AC/10 for a Rotary AC/2 and ER Medium Laser, giving this 'mech a unique combination of destructive long range strike potential backed up by it's melee potential.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Melee Actuators&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;
----
-An unusual variant of the HCT-5D, the 5DD swaps out the AC/10 for a Rotary AC/2 and ER Medium Laser, giving this 'mech a unique combination of destructive long range strike potential backed up by it's melee potential.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Melee Actuators&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">An unusual variant of the HCT-5D, the 5DD swaps out the AC/10 for a Rotary AC/2 and ER Medium Laser, giving this 'mech a unique combination of destructive long range strike potential backed up by it's melee potential.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hatchetman_HCT-5DD.StockRole</t>
@@ -123,17 +111,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,12 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,151 +430,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="55.28515625" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" s="4" customFormat="1">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar FlashPoint/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>chassisdef_cyclops_CP-11-H.Description.Details</t>
   </si>
@@ -26,7 +26,7 @@
   <si>
     <t xml:space="preserve">An upgrade of the Cyclops that has come out of the Periphery, the 11-H was first sighted in 3064 among the ranks of Lady Death's pirates. The H is built on the standard 10-Z chassis but now carries eleven and a half tons of Ferro-Fibrous armor and its weapons payload is heavily modified, carrying the standard Autocannon/20 and two medium lasers but replacing the rest for six Rocket Launcher 20s. This gives the 11-H the firepower to decimate anything that dares to close with it to attempt to make a kill.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Computer B2000&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_cyclops_CP-11-H.StockRole</t>
@@ -53,14 +53,17 @@
   </si>
   <si>
     <t xml:space="preserve">A rugged and formidable variant of the Hatchetman, the 5D not only has a powerful mid range punch with its AC/10 and ER Medium Laser, but also utilizes an extra light engine to reduce overall weight.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Приводы для рукопашной&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hatchetman_HCT-5D.StockRole</t>
   </si>
   <si>
     <t>Brawler &amp; Skirmisher</t>
+  </si>
+  <si>
+    <t>Борец застрельщик</t>
   </si>
   <si>
     <t>chassisdef_hatchetman_HCT-5D.YangsThoughts</t>
@@ -77,9 +80,9 @@
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">An unusual variant of the HCT-5D, the 5DD swaps out the AC/10 for a Rotary AC/2 and ER Medium Laser, giving this 'mech a unique combination of destructive long range strike potential backed up by it's melee potential.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Melee Actuators&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Необычная модификация модели HCT-5D. В 5DD заменили AC/10 на Rotary AC/2 и ER Medium Laser, дав этому меху уникальную комбинацию разрушительного дальнего удара, подкрепленного потенциалом рукопашного боя.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Приводы для рукопашной&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hatchetman_HCT-5DD.StockRole</t>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>An unusual variant of the HCT-5D, the 5DD swaps out the AC/10 for a Rotary AC/2 and ER Medium Laser, giving this 'mech a unique combination of destructive long range strike potential backed up by it's melee potential.</t>
+  </si>
+  <si>
+    <t>Необычная модификация модели HCT-5D. В 5DD заменили AC/10 на Rotary AC/2 и ER Medium Laser, дав этому меху уникальную комбинацию разрушительного дальнего удара, подкрепленного потенциалом рукопашного боя.</t>
   </si>
   <si>
     <t>mechdef_cyclops_CP-11-H.Description.Details</t>
@@ -131,7 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -433,13 +440,14 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="55.28515625" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,7 +457,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -463,7 +471,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -477,7 +485,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
@@ -491,7 +499,7 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
@@ -505,8 +513,8 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -514,13 +522,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -528,13 +536,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>7</v>
@@ -542,13 +550,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>8</v>
@@ -556,13 +564,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>9</v>
@@ -570,12 +578,12 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="2">
@@ -584,12 +592,12 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2">
@@ -598,13 +606,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="2">
         <v>12</v>

--- a/CustomLocalization/Localization/RogueTech/RU/CivilWar FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/CivilWar FlashPoint/LocalizationDef.xlsx
@@ -440,14 +440,14 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="55.28515625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
